--- a/유스케이스명세서/3기 2조 유스케이스 명세서.xlsx
+++ b/유스케이스명세서/3기 2조 유스케이스 명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3기2조프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\유스케이스명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
   <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -415,6 +415,192 @@
   </si>
   <si>
     <t>그룹게시판관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 계정생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 로그인상태유지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 로그인 쿠키를 이용하여 로그인을 유지한다</t>
+  </si>
+  <si>
+    <t>2.2 로그인하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에서 아이디와 비밀번호 확인후 일치하면 세션에 담아 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 회원프로필사진을 수정할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2  비밀번호를 수정할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 이메일을 수정할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 결혼여부를 수정할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 및 전화번호 정보를 이용하여 아이디 및 비밀번호를 찾을수있다</t>
+  </si>
+  <si>
+    <t>아이디 비밀번호 생년월일 이메일 전화번호 결혼여부를 받는다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 전화번호를 수정할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹을 생성할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹을 생성시 그룹 관리자가 된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 그룹 초대를 할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1-1 그룹생성시 회원검색을 통해 특정회원에게 초대 알림을 전송한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1-2 그룹생성후 초대코드를 생성할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 그룹 멤버 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹의 멤버를 방출하거나 권한을 부여할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속한 그룹에서 탈퇴할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹참가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 초대 알림을 받아 그룹에 가입할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 초대코드를 입력하여 그룹에 가입할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지보내기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원검색을 통해 쪽지를 전송할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 내 회원 메모작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 그룹내 특정회원에 메모를 작성할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 일반회원의 권한을 모두 가진다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 대표게시물 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표게시물을 선택하여 해당 게시물을 가장상단에 올린다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 그룹게시물 게재 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물을 등록할수있다 게시물에는 해시태그를 작성하여 구분을 할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1-1 해시태그 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시태그를 이용하여 장소 시기등을 구분할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 그룹게시물 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 게시물 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기가 작성한 글을 수정할수있다 관리자의 경우 모든 글을 수정할수있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기가 작성한 글을 삭제할수있다 관리자의 경우 모든 글을 삭제할수있다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1040,19 +1226,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,75 +1328,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,12 +1354,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,19 +1422,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>281941</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>101042</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>6710</xdr:rowOff>
+      <xdr:colOff>331045</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1261,8 +1447,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="281941" y="11378642"/>
-          <a:ext cx="5615940" cy="3563268"/>
+          <a:off x="68580" y="11681460"/>
+          <a:ext cx="5764105" cy="2804160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,19 +1460,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>164947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>335279</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>5851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1299,8 +1485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="21099780"/>
-          <a:ext cx="5570219" cy="3070860"/>
+          <a:off x="22860" y="20952307"/>
+          <a:ext cx="5707380" cy="3498504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1746,14 +1932,14 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="11"/>
@@ -1776,151 +1962,141 @@
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="8"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -1929,6 +2105,16 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1945,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:J133"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1958,414 +2144,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="42" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="42" t="s">
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="18">
         <v>1</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -2377,7 +2567,9 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="17"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -2389,7 +2581,9 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="17"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -2400,8 +2594,12 @@
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="26"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="26">
+        <v>2</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -2413,7 +2611,9 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="17"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -2425,7 +2625,9 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="17"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -2437,7 +2639,9 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="17"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
@@ -2449,7 +2653,9 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="17"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -2460,8 +2666,12 @@
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="17"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="17">
+        <v>3</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -2473,7 +2683,9 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
@@ -2485,7 +2697,9 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="17"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -2497,7 +2711,9 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
@@ -2509,7 +2725,9 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="17"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -2521,7 +2739,9 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="17"/>
-      <c r="B45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -2532,8 +2752,12 @@
       <c r="J45" s="22"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="17"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="17">
+        <v>4</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
@@ -2652,336 +2876,340 @@
       <c r="J55" s="25"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="42" t="s">
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="44" t="s">
+      <c r="G60" s="51"/>
+      <c r="H60" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="I60" s="45"/>
-      <c r="J60" s="46"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="49"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="52"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="52"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="52"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="50"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="52"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="52"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="40"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="50"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="52"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="52"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="52"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="40"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="52"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="40"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="50"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="52"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="40"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="50"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="52"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="40"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="50"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="52"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="40"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="50"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
-      <c r="J74" s="52"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="40"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="50"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="52"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="40"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="50"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="52"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="40"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="50"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="52"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="40"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="50"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="52"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="40"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="50"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="52"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="40"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="50"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="52"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="40"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="53"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="55"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="43"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="56"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="42" t="s">
+      <c r="B84" s="51"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="46"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="18">
         <v>1</v>
       </c>
-      <c r="B85" s="19"/>
+      <c r="B85" s="19" t="s">
+        <v>115</v>
+      </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
@@ -2993,7 +3221,9 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="17"/>
-      <c r="B86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -3005,7 +3235,9 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="17"/>
-      <c r="B87" s="21"/>
+      <c r="B87" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -3017,7 +3249,9 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="26"/>
-      <c r="B88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -3029,7 +3263,9 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="17"/>
-      <c r="B89" s="21"/>
+      <c r="B89" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
@@ -3041,7 +3277,9 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="17"/>
-      <c r="B90" s="21"/>
+      <c r="B90" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
@@ -3053,7 +3291,9 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="17"/>
-      <c r="B91" s="21"/>
+      <c r="B91" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
@@ -3065,7 +3305,9 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="17"/>
-      <c r="B92" s="21"/>
+      <c r="B92" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
@@ -3076,8 +3318,12 @@
       <c r="J92" s="22"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="17"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="17">
+        <v>2</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
@@ -3089,7 +3335,9 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="17"/>
-      <c r="B94" s="21"/>
+      <c r="B94" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
@@ -3100,8 +3348,12 @@
       <c r="J94" s="22"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="17"/>
-      <c r="B95" s="21"/>
+      <c r="A95" s="17">
+        <v>3</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
@@ -3113,7 +3365,9 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="17"/>
-      <c r="B96" s="21"/>
+      <c r="B96" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
@@ -3125,7 +3379,9 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="17"/>
-      <c r="B97" s="21"/>
+      <c r="B97" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
@@ -3136,8 +3392,12 @@
       <c r="J97" s="22"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="17"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="17">
+        <v>4</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
@@ -3149,7 +3409,9 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="17"/>
-      <c r="B99" s="21"/>
+      <c r="B99" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
@@ -3160,8 +3422,12 @@
       <c r="J99" s="22"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="17"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="17">
+        <v>5</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
@@ -3173,7 +3439,9 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="17"/>
-      <c r="B101" s="21"/>
+      <c r="B101" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
@@ -3268,336 +3536,338 @@
       <c r="J108" s="25"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="63"/>
-      <c r="J111" s="63"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="43"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="42" t="s">
+      <c r="B112" s="51"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G112" s="43"/>
-      <c r="H112" s="44" t="s">
+      <c r="G112" s="51"/>
+      <c r="H112" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I112" s="45"/>
-      <c r="J112" s="46"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="54"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="47"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="48"/>
-      <c r="J113" s="49"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="50"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="52"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="40"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="50"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-      <c r="J115" s="52"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="40"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="50"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="52"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="40"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="50"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="51"/>
-      <c r="J117" s="52"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="40"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="50"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-      <c r="J118" s="52"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="40"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="50"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="51"/>
-      <c r="J119" s="52"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="40"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="50"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="52"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="40"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="50"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="51"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
-      <c r="I121" s="51"/>
-      <c r="J121" s="52"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="40"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="50"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="52"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="40"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="50"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="52"/>
+      <c r="A123" s="38"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="40"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="50"/>
-      <c r="B124" s="51"/>
-      <c r="C124" s="51"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="51"/>
-      <c r="F124" s="51"/>
-      <c r="G124" s="51"/>
-      <c r="H124" s="51"/>
-      <c r="I124" s="51"/>
-      <c r="J124" s="52"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="40"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="50"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="51"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="51"/>
-      <c r="J125" s="52"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="40"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="50"/>
-      <c r="B126" s="51"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51"/>
-      <c r="F126" s="51"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="51"/>
-      <c r="J126" s="52"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="40"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="50"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-      <c r="J127" s="52"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="40"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="50"/>
-      <c r="B128" s="51"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="51"/>
-      <c r="F128" s="51"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="51"/>
-      <c r="J128" s="52"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="40"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="50"/>
-      <c r="B129" s="51"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="51"/>
-      <c r="J129" s="52"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="40"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="50"/>
-      <c r="B130" s="51"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
-      <c r="F130" s="51"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="51"/>
-      <c r="I130" s="51"/>
-      <c r="J130" s="52"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="40"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="50"/>
-      <c r="B131" s="51"/>
-      <c r="C131" s="51"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="51"/>
-      <c r="F131" s="51"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="51"/>
-      <c r="I131" s="51"/>
-      <c r="J131" s="52"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="40"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="50"/>
-      <c r="B132" s="51"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="51"/>
-      <c r="I132" s="51"/>
-      <c r="J132" s="52"/>
+      <c r="A132" s="38"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="40"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="53"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="55"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="43"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="56"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="56"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="44"/>
+      <c r="I134" s="44"/>
+      <c r="J134" s="44"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="57" t="s">
+      <c r="A135" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="62"/>
-      <c r="G135" s="63"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="63"/>
-      <c r="J135" s="63"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B136" s="43"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="46"/>
-      <c r="F136" s="42" t="s">
+      <c r="B136" s="51"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G136" s="43"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="46"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="54"/>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="18">
         <v>1</v>
       </c>
-      <c r="B137" s="19"/>
+      <c r="B137" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
@@ -3609,7 +3879,9 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="17"/>
-      <c r="B138" s="21"/>
+      <c r="B138" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="C138" s="21"/>
       <c r="D138" s="21"/>
       <c r="E138" s="21"/>
@@ -3621,7 +3893,9 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="17"/>
-      <c r="B139" s="21"/>
+      <c r="B139" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="C139" s="21"/>
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
@@ -3633,7 +3907,9 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="26"/>
-      <c r="B140" s="21"/>
+      <c r="B140" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="C140" s="21"/>
       <c r="D140" s="21"/>
       <c r="E140" s="21"/>
@@ -3644,8 +3920,12 @@
       <c r="J140" s="22"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="17"/>
-      <c r="B141" s="21"/>
+      <c r="A141" s="17">
+        <v>2</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
@@ -3657,7 +3937,9 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="17"/>
-      <c r="B142" s="21"/>
+      <c r="B142" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
@@ -3669,7 +3951,9 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="17"/>
-      <c r="B143" s="21"/>
+      <c r="B143" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="C143" s="21"/>
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
@@ -3681,7 +3965,9 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="17"/>
-      <c r="B144" s="21"/>
+      <c r="B144" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="C144" s="21"/>
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
@@ -3693,7 +3979,9 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="17"/>
-      <c r="B145" s="21"/>
+      <c r="B145" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
@@ -3705,7 +3993,9 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="17"/>
-      <c r="B146" s="21"/>
+      <c r="B146" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="C146" s="21"/>
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
@@ -3717,7 +4007,9 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="17"/>
-      <c r="B147" s="21"/>
+      <c r="B147" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="C147" s="21"/>
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
@@ -3729,7 +4021,9 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="17"/>
-      <c r="B148" s="21"/>
+      <c r="B148" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="C148" s="21"/>
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
@@ -3741,7 +4035,9 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="17"/>
-      <c r="B149" s="21"/>
+      <c r="B149" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="C149" s="21"/>
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
@@ -3885,39 +4181,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A113:J133"/>
-    <mergeCell ref="A134:J134"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:J135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="F111:J111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="A61:J81"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:G31"/>
@@ -3928,11 +4196,39 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A8:J28"/>
     <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A61:J81"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="A113:J133"/>
+    <mergeCell ref="A134:J134"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:J136"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3959,101 +4255,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1"/>
     <row r="4" spans="1:10">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="27"/>
@@ -4068,1018 +4364,1084 @@
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="72" t="s">
+      <c r="A52" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="72"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="72" t="s">
+      <c r="A79" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="72" t="s">
+      <c r="A80" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="72"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="72"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
     <mergeCell ref="A81:J81"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
@@ -5092,72 +5454,6 @@
     <mergeCell ref="A78:J78"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
